--- a/config/xlsx/battle.xlsx
+++ b/config/xlsx/battle.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="12360"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,47 +14,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>enemy</t>
   </si>
   <si>
     <t>str</t>
   </si>
   <si>
-    <t>enemy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4,5,6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
   </si>
   <si>
     <t>1,2,3,4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4,5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,26 +65,168 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,7 +235,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -111,12 +247,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -139,9 +461,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -165,17 +729,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -433,19 +1041,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="6" width="9.375" style="3"/>
     <col min="7" max="7" width="14.125" style="3" customWidth="1"/>
@@ -455,12 +1063,12 @@
     <col min="11" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -470,9 +1078,9 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -485,39 +1093,39 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" spans="1:2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -525,7 +1133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -534,7 +1142,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/xlsx/battle.xlsx
+++ b/config/xlsx/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="25460" windowHeight="9440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6</t>
-  </si>
-  <si>
     <t>1,2</t>
   </si>
   <si>
@@ -42,16 +39,19 @@
   <si>
     <t>1,2,3,4,5</t>
   </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -76,16 +76,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,6 +121,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -106,28 +166,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,29 +189,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,53 +202,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -225,8 +209,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,55 +259,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,49 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,67 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,11 +452,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,31 +463,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,6 +502,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -546,16 +534,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,148 +552,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -731,54 +719,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1045,15 +1033,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="6" width="9.375" style="3"/>
     <col min="7" max="7" width="14.125" style="3" customWidth="1"/>
@@ -1097,8 +1085,8 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
+      <c r="B3" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:2">
@@ -1106,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1114,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1122,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1130,7 +1118,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1138,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/config/xlsx/battle.xlsx
+++ b/config/xlsx/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="9440"/>
+    <workbookView windowWidth="25460" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,19 +28,19 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>1,2</t>
+    <t>1,5</t>
   </si>
   <si>
-    <t>1,2,3</t>
+    <t>1,3,6</t>
   </si>
   <si>
-    <t>1,2,3,4</t>
+    <t>1,3,5</t>
   </si>
   <si>
-    <t>1,2,3,4,5</t>
+    <t>1,2,3,6,7</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6</t>
+    <t>1,2,4,5,6,7</t>
   </si>
 </sst>
 </file>
@@ -48,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -76,14 +76,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,84 +129,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,17 +159,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +191,36 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,25 +253,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,19 +319,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,121 +397,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,8 +453,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,37 +483,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,153 +521,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="7"/>
@@ -1101,7 +1101,7 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
